--- a/public/plantilla_oferta.xlsx
+++ b/public/plantilla_oferta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FacultySystem-Front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978CE927-FC18-4A46-BD43-56BC23501D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4662F10-9C1B-43E5-9CC7-9B7D9E6D16F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="4695" windowWidth="25035" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="4575" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -479,7 +479,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +775,7 @@
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -833,7 +832,7 @@
       <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -862,7 +861,7 @@
       <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -891,7 +890,7 @@
       <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -920,7 +919,7 @@
       <c r="H5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -933,13 +932,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF34D623-D266-4933-848D-DBE9AF0CB296}">
   <dimension ref="B3:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="68" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>

--- a/public/plantilla_oferta.xlsx
+++ b/public/plantilla_oferta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FacultySystem-Front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4662F10-9C1B-43E5-9CC7-9B7D9E6D16F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D690EC-F88E-47FD-9F58-32C282E399B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="4575" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30945" yWindow="2415" windowWidth="28800" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
   <si>
     <t>startDate</t>
   </si>
@@ -40,9 +40,6 @@
     <t>spaceType</t>
   </si>
   <si>
-    <t>spaceSize</t>
-  </si>
-  <si>
     <t>Solo debe ser formato .xls (Excel).</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Solo puedes poner el types de color rojo</t>
-  </si>
-  <si>
     <t>subjectId</t>
   </si>
   <si>
@@ -142,33 +136,18 @@
     <t>M</t>
   </si>
   <si>
-    <t>01JA48R4C0A1B2C3D4E5F6G7H8</t>
-  </si>
-  <si>
-    <t>Id con formato ULID</t>
-  </si>
-  <si>
     <t>AUDITORIO</t>
   </si>
   <si>
     <t>professor</t>
   </si>
   <si>
-    <t>num_sections</t>
-  </si>
-  <si>
-    <t>01K867WJJP9YSDC5Q74W8NBJMZ</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>El formato es dd-mm-yyyy</t>
   </si>
   <si>
-    <t>Tipos</t>
-  </si>
-  <si>
     <t>Sala</t>
   </si>
   <si>
@@ -196,9 +175,6 @@
     <t>Multiuso</t>
   </si>
   <si>
-    <t>Tamaños</t>
-  </si>
-  <si>
     <t>Detalles, se pueden modificar en admin</t>
   </si>
   <si>
@@ -332,13 +308,58 @@
   </si>
   <si>
     <t>Building</t>
+  </si>
+  <si>
+    <t>CORE301</t>
+  </si>
+  <si>
+    <t>COM103</t>
+  </si>
+  <si>
+    <t>BIO452</t>
+  </si>
+  <si>
+    <t>BIO420</t>
+  </si>
+  <si>
+    <t>Id númerico como llega desde omega</t>
+  </si>
+  <si>
+    <t>P881294</t>
+  </si>
+  <si>
+    <t>Id con formato de omega, pero también con formato con P inicial.</t>
+  </si>
+  <si>
+    <t>Id con formato de omega.</t>
+  </si>
+  <si>
+    <t>Solo pueden ser del tipo de Building de la tabla.</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Sizes</t>
+  </si>
+  <si>
+    <t>Solo puedes poner el types de la tabla.</t>
+  </si>
+  <si>
+    <t>Cantidad de secciones a crear</t>
+  </si>
+  <si>
+    <t>numberOfSections</t>
+  </si>
+  <si>
+    <t>spaceSizeId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +390,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -479,6 +508,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,7 +805,7 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
@@ -780,10 +813,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -792,16 +825,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
+      <c r="H1" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -809,119 +842,125 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B2">
-        <v>4028</v>
+        <v>588</v>
       </c>
       <c r="C2" s="2">
         <v>45721</v>
       </c>
       <c r="D2" s="2">
-        <v>45813</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
+        <v>45996</v>
+      </c>
+      <c r="E2">
+        <v>1617</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B3">
-        <v>4008</v>
+        <v>588</v>
       </c>
       <c r="C3" s="2">
         <v>45721</v>
       </c>
       <c r="D3" s="2">
-        <v>45813</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
+        <v>45996</v>
+      </c>
+      <c r="E3">
+        <v>6805</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B4">
-        <v>4025</v>
+        <v>588</v>
       </c>
       <c r="C4" s="2">
         <v>45721</v>
       </c>
       <c r="D4" s="2">
-        <v>45813</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
+        <v>45996</v>
+      </c>
+      <c r="E4">
+        <v>2810</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="B5">
-        <v>4020</v>
+        <v>588</v>
       </c>
       <c r="C5" s="2">
         <v>45721</v>
       </c>
       <c r="D5" s="2">
-        <v>45813</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
+        <v>45996</v>
+      </c>
+      <c r="E5">
+        <v>2064</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -932,14 +971,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF34D623-D266-4933-848D-DBE9AF0CB296}">
   <dimension ref="B3:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="68" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
@@ -952,87 +991,89 @@
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4">
         <v>4008</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="F5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1040,28 +1081,28 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D6" s="15">
         <v>46003</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1069,55 +1110,55 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D7" s="15">
         <v>46003</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="F8" s="8"/>
       <c r="H8" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -1125,22 +1166,26 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="H9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -1148,96 +1193,98 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="F10" s="8"/>
       <c r="H10" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>4</v>
+      <c r="B11" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="F11" s="8"/>
       <c r="H11" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>42</v>
+      <c r="B12" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="F12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H13" s="14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H14" s="14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -1245,13 +1292,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -1259,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1267,13 +1314,13 @@
         <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1281,117 +1328,117 @@
         <v>4</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H19" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H20" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H21" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H22" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H23" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H24" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H25" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H26" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H27" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H28" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H29" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H30" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H31" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/public/plantilla_oferta.xlsx
+++ b/public/plantilla_oferta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FacultySystem-Front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D690EC-F88E-47FD-9F58-32C282E399B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C2FE0F-B267-4ABB-9F28-E33F581DD0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30945" yWindow="2415" windowWidth="28800" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="4080" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
   <si>
     <t>startDate</t>
   </si>
@@ -353,6 +353,24 @@
   </si>
   <si>
     <t>spaceSizeId</t>
+  </si>
+  <si>
+    <t>catedra</t>
+  </si>
+  <si>
+    <t>ayudantia</t>
+  </si>
+  <si>
+    <t>taller</t>
+  </si>
+  <si>
+    <t>laboratorio</t>
+  </si>
+  <si>
+    <t>Si no hay ningùn valor, o todos son 0 se tomará el valor de la asignatura.</t>
+  </si>
+  <si>
+    <t>Al menos uno tiene que ser diferente a 0 para que tome a todos.</t>
   </si>
 </sst>
 </file>
@@ -423,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -468,11 +486,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -512,6 +541,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,26 +822,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -827,20 +859,32 @@
       <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -856,20 +900,32 @@
       <c r="E2">
         <v>1617</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -885,20 +941,32 @@
       <c r="E3">
         <v>6805</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -914,20 +982,32 @@
       <c r="E4">
         <v>2810</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -943,24 +1023,33 @@
       <c r="E5">
         <v>2064</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F6" s="20"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="20"/>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G13" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -971,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF34D623-D266-4933-848D-DBE9AF0CB296}">
   <dimension ref="B3:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1305,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1243,7 +1332,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1272,6 +1361,19 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="H13" s="14" t="s">
         <v>43</v>
       </c>
@@ -1280,6 +1382,19 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="H14" s="14" t="s">
         <v>45</v>
       </c>
@@ -1287,13 +1402,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D15">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="E15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="4"/>
       <c r="H15" s="14" t="s">
         <v>47</v>
       </c>
@@ -1301,20 +1423,24 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>6</v>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>93</v>
@@ -1324,12 +1450,6 @@
       </c>
     </row>
     <row r="18" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="H18" s="4" t="s">
         <v>65</v>
       </c>
@@ -1369,7 +1489,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H23" s="4" t="s">
         <v>70</v>
       </c>
@@ -1377,7 +1503,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="H24" s="4" t="s">
         <v>71</v>
       </c>
@@ -1385,7 +1517,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H25" s="4" t="s">
         <v>72</v>
       </c>
@@ -1393,7 +1531,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="H26" s="4" t="s">
         <v>73</v>
       </c>

--- a/public/plantilla_oferta.xlsx
+++ b/public/plantilla_oferta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FacultySystem-Front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C2FE0F-B267-4ABB-9F28-E33F581DD0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17D7F38-2145-4CEB-B041-C756460234E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="4080" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27720" yWindow="5220" windowWidth="26475" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
   <si>
     <t>startDate</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>Al menos uno tiene que ser diferente a 0 para que tome a todos.</t>
+  </si>
+  <si>
+    <t>quota</t>
+  </si>
+  <si>
+    <t>Cantidad de cupos, si no se ingres, por defecto es el valor de la asignatura.</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -542,6 +548,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,12 +845,12 @@
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="9" max="10" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -871,20 +878,23 @@
       <c r="I1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" t="s">
         <v>109</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>110</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>111</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -913,19 +923,22 @@
         <v>1</v>
       </c>
       <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
         <v>5</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -954,19 +967,22 @@
         <v>2</v>
       </c>
       <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
         <v>4</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -995,19 +1011,22 @@
         <v>1</v>
       </c>
       <c r="J4">
+        <v>55</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -1036,19 +1055,22 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G13" s="20"/>
     </row>
   </sheetData>
@@ -1058,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF34D623-D266-4933-848D-DBE9AF0CB296}">
-  <dimension ref="B3:L31"/>
+  <dimension ref="B3:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,29 +1383,27 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>109</v>
+      <c r="B13" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="H13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>44</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1396,15 +1416,15 @@
       </c>
       <c r="F14" s="4"/>
       <c r="H14" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -1417,15 +1437,15 @@
       </c>
       <c r="F15" s="4"/>
       <c r="H15" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>12</v>
@@ -1437,151 +1457,172 @@
         <v>113</v>
       </c>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E17" s="21" t="s">
+      <c r="H16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H18" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="4" t="s">
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="4" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="4" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H21" s="4" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H22" s="4" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="4:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D23">
+    <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="4:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D24">
+    <row r="25" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D25">
         <v>2</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="4:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D25">
+    <row r="26" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26">
+    <row r="27" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="4" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="4" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H29" s="4" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H30" s="4" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H31" s="4" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>92</v>
       </c>
     </row>
